--- a/workmain/src/main/resources/exceltemplate/栏杆下料单.xlsx
+++ b/workmain/src/main/resources/exceltemplate/栏杆下料单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\easywork\workmain\src\main\resources\exceltemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26473F2A-D673-41F3-8D81-AF1209A090D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592398FD-81E2-40B6-9A7E-CA83E9980ABB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>南充华鑫下料单</t>
   </si>
@@ -149,6 +149,29 @@
   </si>
   <si>
     <t>{.right}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>{mgsum}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{lzsum}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{sgsum}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{hgsum}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{shardsum}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +206,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -228,16 +268,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -248,6 +285,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -546,7 +589,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -559,74 +602,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="12" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="8"/>
+      <c r="K3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="12" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="7"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -679,137 +722,149 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
